--- a/06_Energia/P0601/P0601.xlsx
+++ b/06_Energia/P0601/P0601.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="1315">
   <si>
     <t>DESCRIPCION</t>
   </si>
@@ -128,6 +128,9 @@
     <t>CVE_SUN</t>
   </si>
   <si>
+    <t>Disponen_de_electricidad</t>
+  </si>
+  <si>
     <t>EXISTE</t>
   </si>
   <si>
@@ -146,9 +149,6 @@
     <t>P0601</t>
   </si>
   <si>
-    <t>P0601_Disponen_de_electricidad</t>
-  </si>
-  <si>
     <t>TIPO_SUN</t>
   </si>
   <si>
@@ -161,7 +161,7 @@
     <t>2015</t>
   </si>
   <si>
-    <t>Porcentaje</t>
+    <t>%</t>
   </si>
   <si>
     <t>Encuesta Intercensal 2015 - Tabulados de Vivienda</t>
@@ -4603,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>1308</v>
@@ -4875,7 +4875,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4883,23 +4883,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4907,7 +4907,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4915,7 +4915,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4923,7 +4923,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4991,10 +4991,10 @@
         <v>43</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7313,13 +7313,13 @@
         <v>35</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14928,7 +14928,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>31</v>
@@ -15934,10 +15934,10 @@
         <v>793</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -15951,10 +15951,10 @@
         <v>797</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -15968,10 +15968,10 @@
         <v>798</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -15985,10 +15985,10 @@
         <v>799</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -16002,10 +16002,10 @@
         <v>809</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -16019,10 +16019,10 @@
         <v>813</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -16036,10 +16036,10 @@
         <v>826</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -16053,10 +16053,10 @@
         <v>827</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -16070,10 +16070,10 @@
         <v>833</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -16087,10 +16087,10 @@
         <v>837</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -16104,10 +16104,10 @@
         <v>857</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -16121,10 +16121,10 @@
         <v>860</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -16138,10 +16138,10 @@
         <v>862</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -16155,10 +16155,10 @@
         <v>872</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -16172,10 +16172,10 @@
         <v>874</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -16189,10 +16189,10 @@
         <v>877</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -16206,10 +16206,10 @@
         <v>883</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -16223,10 +16223,10 @@
         <v>896</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -16240,10 +16240,10 @@
         <v>903</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -16257,10 +16257,10 @@
         <v>912</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -16274,10 +16274,10 @@
         <v>917</v>
       </c>
       <c r="C80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -16291,10 +16291,10 @@
         <v>923</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -16308,10 +16308,10 @@
         <v>925</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -17242,7 +17242,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G487"/>
+  <dimension ref="A1:G447"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17266,13 +17266,13 @@
         <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>20</v>
@@ -25675,16 +25675,16 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B367" t="s">
-        <v>928</v>
+        <v>955</v>
       </c>
       <c r="C367" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D367" t="s">
-        <v>793</v>
+        <v>1279</v>
       </c>
       <c r="E367">
         <v>2</v>
@@ -25698,7 +25698,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B368" t="s">
         <v>955</v>
@@ -25721,16 +25721,16 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B369" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C369" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D369" t="s">
-        <v>1279</v>
+        <v>799</v>
       </c>
       <c r="E369">
         <v>2</v>
@@ -25744,16 +25744,16 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B370" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="C370" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="D370" t="s">
-        <v>1279</v>
+        <v>809</v>
       </c>
       <c r="E370">
         <v>2</v>
@@ -25767,16 +25767,16 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B371" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="C371" t="s">
-        <v>356</v>
+        <v>383</v>
       </c>
       <c r="D371" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E371">
         <v>2</v>
@@ -25790,16 +25790,16 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B372" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="C372" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="D372" t="s">
-        <v>1279</v>
+        <v>826</v>
       </c>
       <c r="E372">
         <v>2</v>
@@ -25813,16 +25813,16 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B373" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="C373" t="s">
-        <v>356</v>
+        <v>418</v>
       </c>
       <c r="D373" t="s">
-        <v>1279</v>
+        <v>827</v>
       </c>
       <c r="E373">
         <v>2</v>
@@ -25836,16 +25836,16 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B374" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="C374" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="D374" t="s">
-        <v>1279</v>
+        <v>833</v>
       </c>
       <c r="E374">
         <v>2</v>
@@ -25859,16 +25859,16 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B375" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="C375" t="s">
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="D375" t="s">
-        <v>1279</v>
+        <v>837</v>
       </c>
       <c r="E375">
         <v>2</v>
@@ -25882,16 +25882,16 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B376" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="C376" t="s">
-        <v>356</v>
+        <v>553</v>
       </c>
       <c r="D376" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E376">
         <v>2</v>
@@ -25905,16 +25905,16 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B377" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="C377" t="s">
-        <v>356</v>
+        <v>558</v>
       </c>
       <c r="D377" t="s">
-        <v>1279</v>
+        <v>860</v>
       </c>
       <c r="E377">
         <v>2</v>
@@ -25928,16 +25928,16 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B378" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="C378" t="s">
-        <v>356</v>
+        <v>561</v>
       </c>
       <c r="D378" t="s">
-        <v>1279</v>
+        <v>862</v>
       </c>
       <c r="E378">
         <v>2</v>
@@ -25951,16 +25951,16 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="7" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B379" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C379" t="s">
-        <v>356</v>
+        <v>605</v>
       </c>
       <c r="D379" t="s">
-        <v>1279</v>
+        <v>872</v>
       </c>
       <c r="E379">
         <v>2</v>
@@ -25974,16 +25974,16 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B380" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C380" t="s">
-        <v>357</v>
+        <v>622</v>
       </c>
       <c r="D380" t="s">
-        <v>799</v>
+        <v>1282</v>
       </c>
       <c r="E380">
         <v>2</v>
@@ -25997,16 +25997,16 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="7" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B381" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C381" t="s">
-        <v>357</v>
+        <v>628</v>
       </c>
       <c r="D381" t="s">
-        <v>799</v>
+        <v>1283</v>
       </c>
       <c r="E381">
         <v>2</v>
@@ -26020,16 +26020,16 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="7" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B382" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="C382" t="s">
-        <v>376</v>
+        <v>634</v>
       </c>
       <c r="D382" t="s">
-        <v>809</v>
+        <v>1284</v>
       </c>
       <c r="E382">
         <v>2</v>
@@ -26043,16 +26043,16 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B383" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="C383" t="s">
-        <v>376</v>
+        <v>631</v>
       </c>
       <c r="D383" t="s">
-        <v>809</v>
+        <v>877</v>
       </c>
       <c r="E383">
         <v>2</v>
@@ -26066,16 +26066,16 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B384" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="C384" t="s">
-        <v>383</v>
+        <v>657</v>
       </c>
       <c r="D384" t="s">
-        <v>1280</v>
+        <v>1285</v>
       </c>
       <c r="E384">
         <v>2</v>
@@ -26089,16 +26089,16 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B385" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="C385" t="s">
-        <v>383</v>
+        <v>672</v>
       </c>
       <c r="D385" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="E385">
         <v>2</v>
@@ -26112,16 +26112,16 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B386" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="C386" t="s">
-        <v>383</v>
+        <v>680</v>
       </c>
       <c r="D386" t="s">
-        <v>1280</v>
+        <v>903</v>
       </c>
       <c r="E386">
         <v>2</v>
@@ -26135,16 +26135,16 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="B387" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="C387" t="s">
-        <v>383</v>
+        <v>699</v>
       </c>
       <c r="D387" t="s">
-        <v>1280</v>
+        <v>912</v>
       </c>
       <c r="E387">
         <v>2</v>
@@ -26158,16 +26158,16 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B388" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C388" t="s">
-        <v>417</v>
+        <v>736</v>
       </c>
       <c r="D388" t="s">
-        <v>826</v>
+        <v>1287</v>
       </c>
       <c r="E388">
         <v>2</v>
@@ -26181,16 +26181,16 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B389" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C389" t="s">
-        <v>417</v>
+        <v>758</v>
       </c>
       <c r="D389" t="s">
-        <v>826</v>
+        <v>917</v>
       </c>
       <c r="E389">
         <v>2</v>
@@ -26204,16 +26204,16 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B390" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C390" t="s">
-        <v>417</v>
+        <v>778</v>
       </c>
       <c r="D390" t="s">
-        <v>826</v>
+        <v>1288</v>
       </c>
       <c r="E390">
         <v>2</v>
@@ -26227,16 +26227,16 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="B391" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="C391" t="s">
-        <v>418</v>
+        <v>788</v>
       </c>
       <c r="D391" t="s">
-        <v>827</v>
+        <v>925</v>
       </c>
       <c r="E391">
         <v>2</v>
@@ -26250,19 +26250,19 @@
     </row>
     <row r="392" spans="1:7">
       <c r="A392" s="7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B392" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="C392" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="D392" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="E392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F392" t="b">
         <v>1</v>
@@ -26273,19 +26273,19 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B393" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="C393" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="D393" t="s">
-        <v>827</v>
+        <v>1289</v>
       </c>
       <c r="E393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F393" t="b">
         <v>1</v>
@@ -26296,19 +26296,19 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B394" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C394" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="D394" t="s">
-        <v>833</v>
+        <v>1290</v>
       </c>
       <c r="E394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F394" t="b">
         <v>1</v>
@@ -26319,19 +26319,19 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B395" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C395" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
       <c r="D395" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="E395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F395" t="b">
         <v>1</v>
@@ -26342,19 +26342,19 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B396" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C396" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="D396" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="E396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F396" t="b">
         <v>1</v>
@@ -26365,19 +26365,19 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B397" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="C397" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="D397" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="E397">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F397" t="b">
         <v>1</v>
@@ -26388,19 +26388,19 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B398" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C398" t="s">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="D398" t="s">
-        <v>1281</v>
+        <v>815</v>
       </c>
       <c r="E398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F398" t="b">
         <v>1</v>
@@ -26411,19 +26411,19 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B399" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C399" t="s">
-        <v>553</v>
+        <v>389</v>
       </c>
       <c r="D399" t="s">
-        <v>1281</v>
+        <v>816</v>
       </c>
       <c r="E399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F399" t="b">
         <v>1</v>
@@ -26434,19 +26434,19 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B400" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C400" t="s">
-        <v>553</v>
+        <v>390</v>
       </c>
       <c r="D400" t="s">
-        <v>1281</v>
+        <v>817</v>
       </c>
       <c r="E400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F400" t="b">
         <v>1</v>
@@ -26457,19 +26457,19 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B401" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="C401" t="s">
-        <v>558</v>
+        <v>392</v>
       </c>
       <c r="D401" t="s">
-        <v>860</v>
+        <v>819</v>
       </c>
       <c r="E401">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F401" t="b">
         <v>1</v>
@@ -26480,19 +26480,19 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B402" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="C402" t="s">
-        <v>558</v>
+        <v>409</v>
       </c>
       <c r="D402" t="s">
-        <v>860</v>
+        <v>1291</v>
       </c>
       <c r="E402">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F402" t="b">
         <v>1</v>
@@ -26503,19 +26503,19 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403" s="7" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B403" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C403" t="s">
-        <v>558</v>
+        <v>412</v>
       </c>
       <c r="D403" t="s">
-        <v>860</v>
+        <v>822</v>
       </c>
       <c r="E403">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F403" t="b">
         <v>1</v>
@@ -26526,19 +26526,19 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404" s="7" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B404" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C404" t="s">
-        <v>558</v>
+        <v>426</v>
       </c>
       <c r="D404" t="s">
-        <v>860</v>
+        <v>834</v>
       </c>
       <c r="E404">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F404" t="b">
         <v>1</v>
@@ -26549,19 +26549,19 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405" s="7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B405" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C405" t="s">
-        <v>561</v>
+        <v>415</v>
       </c>
       <c r="D405" t="s">
-        <v>862</v>
+        <v>824</v>
       </c>
       <c r="E405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F405" t="b">
         <v>1</v>
@@ -26572,19 +26572,19 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406" s="7" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B406" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C406" t="s">
-        <v>561</v>
+        <v>416</v>
       </c>
       <c r="D406" t="s">
-        <v>862</v>
+        <v>1292</v>
       </c>
       <c r="E406">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F406" t="b">
         <v>1</v>
@@ -26595,19 +26595,19 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407" s="7" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B407" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C407" t="s">
-        <v>605</v>
+        <v>423</v>
       </c>
       <c r="D407" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
       <c r="E407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F407" t="b">
         <v>1</v>
@@ -26618,19 +26618,19 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408" s="7" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B408" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="C408" t="s">
-        <v>605</v>
+        <v>429</v>
       </c>
       <c r="D408" t="s">
-        <v>872</v>
+        <v>835</v>
       </c>
       <c r="E408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F408" t="b">
         <v>1</v>
@@ -26641,19 +26641,19 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="7" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B409" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C409" t="s">
-        <v>622</v>
+        <v>434</v>
       </c>
       <c r="D409" t="s">
-        <v>1282</v>
+        <v>838</v>
       </c>
       <c r="E409">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F409" t="b">
         <v>1</v>
@@ -26664,19 +26664,19 @@
     </row>
     <row r="410" spans="1:7">
       <c r="A410" s="7" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B410" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C410" t="s">
-        <v>622</v>
+        <v>436</v>
       </c>
       <c r="D410" t="s">
-        <v>1282</v>
+        <v>1293</v>
       </c>
       <c r="E410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F410" t="b">
         <v>1</v>
@@ -26687,19 +26687,19 @@
     </row>
     <row r="411" spans="1:7">
       <c r="A411" s="7" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B411" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="C411" t="s">
-        <v>628</v>
+        <v>435</v>
       </c>
       <c r="D411" t="s">
-        <v>1283</v>
+        <v>839</v>
       </c>
       <c r="E411">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F411" t="b">
         <v>1</v>
@@ -26710,19 +26710,19 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412" s="7" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="B412" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C412" t="s">
-        <v>634</v>
+        <v>453</v>
       </c>
       <c r="D412" t="s">
-        <v>1284</v>
+        <v>844</v>
       </c>
       <c r="E412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F412" t="b">
         <v>1</v>
@@ -26733,19 +26733,19 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="B413" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C413" t="s">
-        <v>634</v>
+        <v>467</v>
       </c>
       <c r="D413" t="s">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="E413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F413" t="b">
         <v>1</v>
@@ -26756,19 +26756,19 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414" s="7" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="B414" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C414" t="s">
-        <v>631</v>
+        <v>458</v>
       </c>
       <c r="D414" t="s">
-        <v>877</v>
+        <v>846</v>
       </c>
       <c r="E414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F414" t="b">
         <v>1</v>
@@ -26779,19 +26779,19 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415" s="7" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="B415" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C415" t="s">
-        <v>631</v>
+        <v>463</v>
       </c>
       <c r="D415" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="E415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F415" t="b">
         <v>1</v>
@@ -26802,19 +26802,19 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416" s="7" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B416" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C416" t="s">
-        <v>657</v>
+        <v>548</v>
       </c>
       <c r="D416" t="s">
-        <v>1285</v>
+        <v>1295</v>
       </c>
       <c r="E416">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F416" t="b">
         <v>1</v>
@@ -26825,19 +26825,19 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417" s="7" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B417" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="C417" t="s">
-        <v>657</v>
+        <v>550</v>
       </c>
       <c r="D417" t="s">
-        <v>1285</v>
+        <v>1296</v>
       </c>
       <c r="E417">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F417" t="b">
         <v>1</v>
@@ -26848,19 +26848,19 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418" s="7" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="B418" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="C418" t="s">
-        <v>672</v>
+        <v>555</v>
       </c>
       <c r="D418" t="s">
-        <v>1286</v>
+        <v>858</v>
       </c>
       <c r="E418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F418" t="b">
         <v>1</v>
@@ -26871,19 +26871,19 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="7" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="B419" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="C419" t="s">
-        <v>672</v>
+        <v>556</v>
       </c>
       <c r="D419" t="s">
-        <v>1286</v>
+        <v>1297</v>
       </c>
       <c r="E419">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F419" t="b">
         <v>1</v>
@@ -26894,19 +26894,19 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420" s="7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B420" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="C420" t="s">
-        <v>680</v>
+        <v>559</v>
       </c>
       <c r="D420" t="s">
-        <v>903</v>
+        <v>861</v>
       </c>
       <c r="E420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F420" t="b">
         <v>1</v>
@@ -26917,19 +26917,19 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421" s="7" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="B421" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C421" t="s">
-        <v>680</v>
+        <v>586</v>
       </c>
       <c r="D421" t="s">
-        <v>903</v>
+        <v>867</v>
       </c>
       <c r="E421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F421" t="b">
         <v>1</v>
@@ -26940,19 +26940,19 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422" s="7" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B422" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C422" t="s">
-        <v>699</v>
+        <v>594</v>
       </c>
       <c r="D422" t="s">
-        <v>912</v>
+        <v>869</v>
       </c>
       <c r="E422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F422" t="b">
         <v>1</v>
@@ -26963,19 +26963,19 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="7" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="B423" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C423" t="s">
-        <v>699</v>
+        <v>595</v>
       </c>
       <c r="D423" t="s">
-        <v>912</v>
+        <v>870</v>
       </c>
       <c r="E423">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F423" t="b">
         <v>1</v>
@@ -26986,19 +26986,19 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424" s="7" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="B424" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C424" t="s">
-        <v>736</v>
+        <v>624</v>
       </c>
       <c r="D424" t="s">
-        <v>1287</v>
+        <v>875</v>
       </c>
       <c r="E424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F424" t="b">
         <v>1</v>
@@ -27009,19 +27009,19 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425" s="7" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="B425" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="C425" t="s">
-        <v>758</v>
+        <v>653</v>
       </c>
       <c r="D425" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="E425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F425" t="b">
         <v>1</v>
@@ -27032,19 +27032,19 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426" s="7" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B426" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C426" t="s">
-        <v>758</v>
+        <v>655</v>
       </c>
       <c r="D426" t="s">
-        <v>917</v>
+        <v>882</v>
       </c>
       <c r="E426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F426" t="b">
         <v>1</v>
@@ -27055,19 +27055,19 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B427" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C427" t="s">
-        <v>778</v>
+        <v>658</v>
       </c>
       <c r="D427" t="s">
-        <v>1288</v>
+        <v>1298</v>
       </c>
       <c r="E427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F427" t="b">
         <v>1</v>
@@ -27078,19 +27078,19 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B428" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C428" t="s">
-        <v>778</v>
+        <v>660</v>
       </c>
       <c r="D428" t="s">
-        <v>1288</v>
+        <v>886</v>
       </c>
       <c r="E428">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F428" t="b">
         <v>1</v>
@@ -27101,19 +27101,19 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="B429" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C429" t="s">
-        <v>778</v>
+        <v>661</v>
       </c>
       <c r="D429" t="s">
-        <v>1288</v>
+        <v>887</v>
       </c>
       <c r="E429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F429" t="b">
         <v>1</v>
@@ -27124,19 +27124,19 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B430" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C430" t="s">
-        <v>788</v>
+        <v>665</v>
       </c>
       <c r="D430" t="s">
-        <v>925</v>
+        <v>1299</v>
       </c>
       <c r="E430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F430" t="b">
         <v>1</v>
@@ -27147,19 +27147,19 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431" s="7" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="B431" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C431" t="s">
-        <v>788</v>
+        <v>666</v>
       </c>
       <c r="D431" t="s">
-        <v>925</v>
+        <v>1300</v>
       </c>
       <c r="E431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F431" t="b">
         <v>1</v>
@@ -27170,16 +27170,16 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432" s="7" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="B432" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="C432" t="s">
-        <v>355</v>
+        <v>667</v>
       </c>
       <c r="D432" t="s">
-        <v>796</v>
+        <v>891</v>
       </c>
       <c r="E432">
         <v>3</v>
@@ -27193,16 +27193,16 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="B433" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C433" t="s">
-        <v>358</v>
+        <v>668</v>
       </c>
       <c r="D433" t="s">
-        <v>1289</v>
+        <v>892</v>
       </c>
       <c r="E433">
         <v>3</v>
@@ -27216,16 +27216,16 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="B434" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="C434" t="s">
-        <v>359</v>
+        <v>669</v>
       </c>
       <c r="D434" t="s">
-        <v>1290</v>
+        <v>1301</v>
       </c>
       <c r="E434">
         <v>3</v>
@@ -27239,16 +27239,16 @@
     </row>
     <row r="435" spans="1:7">
       <c r="A435" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="B435" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="C435" t="s">
-        <v>368</v>
+        <v>670</v>
       </c>
       <c r="D435" t="s">
-        <v>806</v>
+        <v>894</v>
       </c>
       <c r="E435">
         <v>3</v>
@@ -27262,16 +27262,16 @@
     </row>
     <row r="436" spans="1:7">
       <c r="A436" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B436" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="C436" t="s">
-        <v>381</v>
+        <v>671</v>
       </c>
       <c r="D436" t="s">
-        <v>811</v>
+        <v>1302</v>
       </c>
       <c r="E436">
         <v>3</v>
@@ -27285,16 +27285,16 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="B437" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="C437" t="s">
-        <v>382</v>
+        <v>675</v>
       </c>
       <c r="D437" t="s">
-        <v>812</v>
+        <v>898</v>
       </c>
       <c r="E437">
         <v>3</v>
@@ -27308,16 +27308,16 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438" s="7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="B438" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="C438" t="s">
-        <v>388</v>
+        <v>676</v>
       </c>
       <c r="D438" t="s">
-        <v>815</v>
+        <v>899</v>
       </c>
       <c r="E438">
         <v>3</v>
@@ -27331,16 +27331,16 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="B439" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="C439" t="s">
-        <v>389</v>
+        <v>677</v>
       </c>
       <c r="D439" t="s">
-        <v>816</v>
+        <v>1251</v>
       </c>
       <c r="E439">
         <v>3</v>
@@ -27354,16 +27354,16 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="B440" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="C440" t="s">
-        <v>390</v>
+        <v>678</v>
       </c>
       <c r="D440" t="s">
-        <v>817</v>
+        <v>901</v>
       </c>
       <c r="E440">
         <v>3</v>
@@ -27377,16 +27377,16 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="B441" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="C441" t="s">
-        <v>392</v>
+        <v>679</v>
       </c>
       <c r="D441" t="s">
-        <v>819</v>
+        <v>902</v>
       </c>
       <c r="E441">
         <v>3</v>
@@ -27400,16 +27400,16 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="B442" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
       <c r="C442" t="s">
-        <v>409</v>
+        <v>685</v>
       </c>
       <c r="D442" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="E442">
         <v>3</v>
@@ -27423,16 +27423,16 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B443" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="C443" t="s">
-        <v>412</v>
+        <v>691</v>
       </c>
       <c r="D443" t="s">
-        <v>822</v>
+        <v>1304</v>
       </c>
       <c r="E443">
         <v>3</v>
@@ -27446,16 +27446,16 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="B444" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C444" t="s">
-        <v>426</v>
+        <v>773</v>
       </c>
       <c r="D444" t="s">
-        <v>834</v>
+        <v>922</v>
       </c>
       <c r="E444">
         <v>3</v>
@@ -27469,19 +27469,19 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445" s="7" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B445" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="C445" t="s">
-        <v>415</v>
+        <v>789</v>
       </c>
       <c r="D445" t="s">
-        <v>824</v>
+        <v>1124</v>
       </c>
       <c r="E445">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F445" t="b">
         <v>1</v>
@@ -27492,19 +27492,19 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446" s="7" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="B446" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="C446" t="s">
-        <v>416</v>
+        <v>790</v>
       </c>
       <c r="D446" t="s">
-        <v>1292</v>
+        <v>1305</v>
       </c>
       <c r="E446">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F446" t="b">
         <v>1</v>
@@ -27515,944 +27515,24 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447" s="7" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B447" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="C447" t="s">
-        <v>423</v>
+        <v>791</v>
       </c>
       <c r="D447" t="s">
-        <v>832</v>
+        <v>1306</v>
       </c>
       <c r="E447">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F447" t="b">
         <v>1</v>
       </c>
       <c r="G447">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
-      <c r="A448" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B448" t="s">
-        <v>937</v>
-      </c>
-      <c r="C448" t="s">
-        <v>429</v>
-      </c>
-      <c r="D448" t="s">
-        <v>835</v>
-      </c>
-      <c r="E448">
-        <v>3</v>
-      </c>
-      <c r="F448" t="b">
-        <v>1</v>
-      </c>
-      <c r="G448">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
-      <c r="A449" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B449" t="s">
-        <v>938</v>
-      </c>
-      <c r="C449" t="s">
-        <v>434</v>
-      </c>
-      <c r="D449" t="s">
-        <v>838</v>
-      </c>
-      <c r="E449">
-        <v>3</v>
-      </c>
-      <c r="F449" t="b">
-        <v>1</v>
-      </c>
-      <c r="G449">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
-      <c r="A450" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B450" t="s">
-        <v>938</v>
-      </c>
-      <c r="C450" t="s">
-        <v>436</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E450">
-        <v>3</v>
-      </c>
-      <c r="F450" t="b">
-        <v>1</v>
-      </c>
-      <c r="G450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
-      <c r="A451" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B451" t="s">
-        <v>938</v>
-      </c>
-      <c r="C451" t="s">
-        <v>435</v>
-      </c>
-      <c r="D451" t="s">
-        <v>839</v>
-      </c>
-      <c r="E451">
-        <v>3</v>
-      </c>
-      <c r="F451" t="b">
-        <v>1</v>
-      </c>
-      <c r="G451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
-      <c r="A452" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B452" t="s">
-        <v>939</v>
-      </c>
-      <c r="C452" t="s">
-        <v>453</v>
-      </c>
-      <c r="D452" t="s">
-        <v>844</v>
-      </c>
-      <c r="E452">
-        <v>3</v>
-      </c>
-      <c r="F452" t="b">
-        <v>1</v>
-      </c>
-      <c r="G452">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
-      <c r="A453" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B453" t="s">
-        <v>939</v>
-      </c>
-      <c r="C453" t="s">
-        <v>467</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E453">
-        <v>3</v>
-      </c>
-      <c r="F453" t="b">
-        <v>1</v>
-      </c>
-      <c r="G453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
-      <c r="A454" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B454" t="s">
-        <v>939</v>
-      </c>
-      <c r="C454" t="s">
-        <v>458</v>
-      </c>
-      <c r="D454" t="s">
-        <v>846</v>
-      </c>
-      <c r="E454">
-        <v>3</v>
-      </c>
-      <c r="F454" t="b">
-        <v>1</v>
-      </c>
-      <c r="G454">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7">
-      <c r="A455" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B455" t="s">
-        <v>939</v>
-      </c>
-      <c r="C455" t="s">
-        <v>463</v>
-      </c>
-      <c r="D455" t="s">
-        <v>849</v>
-      </c>
-      <c r="E455">
-        <v>3</v>
-      </c>
-      <c r="F455" t="b">
-        <v>1</v>
-      </c>
-      <c r="G455">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
-      <c r="A456" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B456" t="s">
-        <v>941</v>
-      </c>
-      <c r="C456" t="s">
-        <v>548</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E456">
-        <v>3</v>
-      </c>
-      <c r="F456" t="b">
-        <v>1</v>
-      </c>
-      <c r="G456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
-      <c r="A457" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B457" t="s">
-        <v>941</v>
-      </c>
-      <c r="C457" t="s">
-        <v>550</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E457">
-        <v>3</v>
-      </c>
-      <c r="F457" t="b">
-        <v>1</v>
-      </c>
-      <c r="G457">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
-      <c r="A458" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B458" t="s">
-        <v>941</v>
-      </c>
-      <c r="C458" t="s">
-        <v>555</v>
-      </c>
-      <c r="D458" t="s">
-        <v>858</v>
-      </c>
-      <c r="E458">
-        <v>3</v>
-      </c>
-      <c r="F458" t="b">
-        <v>1</v>
-      </c>
-      <c r="G458">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
-      <c r="A459" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B459" t="s">
-        <v>941</v>
-      </c>
-      <c r="C459" t="s">
-        <v>556</v>
-      </c>
-      <c r="D459" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E459">
-        <v>3</v>
-      </c>
-      <c r="F459" t="b">
-        <v>1</v>
-      </c>
-      <c r="G459">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B460" t="s">
-        <v>941</v>
-      </c>
-      <c r="C460" t="s">
-        <v>559</v>
-      </c>
-      <c r="D460" t="s">
-        <v>861</v>
-      </c>
-      <c r="E460">
-        <v>3</v>
-      </c>
-      <c r="F460" t="b">
-        <v>1</v>
-      </c>
-      <c r="G460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
-      <c r="A461" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B461" t="s">
-        <v>943</v>
-      </c>
-      <c r="C461" t="s">
-        <v>586</v>
-      </c>
-      <c r="D461" t="s">
-        <v>867</v>
-      </c>
-      <c r="E461">
-        <v>3</v>
-      </c>
-      <c r="F461" t="b">
-        <v>1</v>
-      </c>
-      <c r="G461">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B462" t="s">
-        <v>944</v>
-      </c>
-      <c r="C462" t="s">
-        <v>594</v>
-      </c>
-      <c r="D462" t="s">
-        <v>869</v>
-      </c>
-      <c r="E462">
-        <v>3</v>
-      </c>
-      <c r="F462" t="b">
-        <v>1</v>
-      </c>
-      <c r="G462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B463" t="s">
-        <v>944</v>
-      </c>
-      <c r="C463" t="s">
-        <v>595</v>
-      </c>
-      <c r="D463" t="s">
-        <v>870</v>
-      </c>
-      <c r="E463">
-        <v>3</v>
-      </c>
-      <c r="F463" t="b">
-        <v>1</v>
-      </c>
-      <c r="G463">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B464" t="s">
-        <v>945</v>
-      </c>
-      <c r="C464" t="s">
-        <v>624</v>
-      </c>
-      <c r="D464" t="s">
-        <v>875</v>
-      </c>
-      <c r="E464">
-        <v>3</v>
-      </c>
-      <c r="F464" t="b">
-        <v>1</v>
-      </c>
-      <c r="G464">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
-      <c r="A465" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B465" t="s">
-        <v>947</v>
-      </c>
-      <c r="C465" t="s">
-        <v>653</v>
-      </c>
-      <c r="D465" t="s">
-        <v>880</v>
-      </c>
-      <c r="E465">
-        <v>3</v>
-      </c>
-      <c r="F465" t="b">
-        <v>1</v>
-      </c>
-      <c r="G465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7">
-      <c r="A466" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B466" t="s">
-        <v>948</v>
-      </c>
-      <c r="C466" t="s">
-        <v>655</v>
-      </c>
-      <c r="D466" t="s">
-        <v>882</v>
-      </c>
-      <c r="E466">
-        <v>3</v>
-      </c>
-      <c r="F466" t="b">
-        <v>1</v>
-      </c>
-      <c r="G466">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
-      <c r="A467" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B467" t="s">
-        <v>948</v>
-      </c>
-      <c r="C467" t="s">
-        <v>658</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1298</v>
-      </c>
-      <c r="E467">
-        <v>3</v>
-      </c>
-      <c r="F467" t="b">
-        <v>1</v>
-      </c>
-      <c r="G467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
-      <c r="A468" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B468" t="s">
-        <v>949</v>
-      </c>
-      <c r="C468" t="s">
-        <v>660</v>
-      </c>
-      <c r="D468" t="s">
-        <v>886</v>
-      </c>
-      <c r="E468">
-        <v>3</v>
-      </c>
-      <c r="F468" t="b">
-        <v>1</v>
-      </c>
-      <c r="G468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B469" t="s">
-        <v>949</v>
-      </c>
-      <c r="C469" t="s">
-        <v>661</v>
-      </c>
-      <c r="D469" t="s">
-        <v>887</v>
-      </c>
-      <c r="E469">
-        <v>3</v>
-      </c>
-      <c r="F469" t="b">
-        <v>1</v>
-      </c>
-      <c r="G469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
-      <c r="A470" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B470" t="s">
-        <v>958</v>
-      </c>
-      <c r="C470" t="s">
-        <v>665</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E470">
-        <v>3</v>
-      </c>
-      <c r="F470" t="b">
-        <v>1</v>
-      </c>
-      <c r="G470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
-      <c r="A471" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B471" t="s">
-        <v>958</v>
-      </c>
-      <c r="C471" t="s">
-        <v>666</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E471">
-        <v>3</v>
-      </c>
-      <c r="F471" t="b">
-        <v>1</v>
-      </c>
-      <c r="G471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
-      <c r="A472" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B472" t="s">
-        <v>958</v>
-      </c>
-      <c r="C472" t="s">
-        <v>667</v>
-      </c>
-      <c r="D472" t="s">
-        <v>891</v>
-      </c>
-      <c r="E472">
-        <v>3</v>
-      </c>
-      <c r="F472" t="b">
-        <v>1</v>
-      </c>
-      <c r="G472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
-      <c r="A473" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B473" t="s">
-        <v>958</v>
-      </c>
-      <c r="C473" t="s">
-        <v>668</v>
-      </c>
-      <c r="D473" t="s">
-        <v>892</v>
-      </c>
-      <c r="E473">
-        <v>3</v>
-      </c>
-      <c r="F473" t="b">
-        <v>1</v>
-      </c>
-      <c r="G473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
-      <c r="A474" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B474" t="s">
-        <v>958</v>
-      </c>
-      <c r="C474" t="s">
-        <v>669</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E474">
-        <v>3</v>
-      </c>
-      <c r="F474" t="b">
-        <v>1</v>
-      </c>
-      <c r="G474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
-      <c r="A475" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B475" t="s">
-        <v>950</v>
-      </c>
-      <c r="C475" t="s">
-        <v>670</v>
-      </c>
-      <c r="D475" t="s">
-        <v>894</v>
-      </c>
-      <c r="E475">
-        <v>3</v>
-      </c>
-      <c r="F475" t="b">
-        <v>1</v>
-      </c>
-      <c r="G475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
-      <c r="A476" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B476" t="s">
-        <v>950</v>
-      </c>
-      <c r="C476" t="s">
-        <v>671</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E476">
-        <v>3</v>
-      </c>
-      <c r="F476" t="b">
-        <v>1</v>
-      </c>
-      <c r="G476">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
-      <c r="A477" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B477" t="s">
-        <v>950</v>
-      </c>
-      <c r="C477" t="s">
-        <v>675</v>
-      </c>
-      <c r="D477" t="s">
-        <v>898</v>
-      </c>
-      <c r="E477">
-        <v>3</v>
-      </c>
-      <c r="F477" t="b">
-        <v>1</v>
-      </c>
-      <c r="G477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
-      <c r="A478" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B478" t="s">
-        <v>950</v>
-      </c>
-      <c r="C478" t="s">
-        <v>676</v>
-      </c>
-      <c r="D478" t="s">
-        <v>899</v>
-      </c>
-      <c r="E478">
-        <v>3</v>
-      </c>
-      <c r="F478" t="b">
-        <v>1</v>
-      </c>
-      <c r="G478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7">
-      <c r="A479" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B479" t="s">
-        <v>950</v>
-      </c>
-      <c r="C479" t="s">
-        <v>677</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E479">
-        <v>3</v>
-      </c>
-      <c r="F479" t="b">
-        <v>1</v>
-      </c>
-      <c r="G479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
-      <c r="A480" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B480" t="s">
-        <v>950</v>
-      </c>
-      <c r="C480" t="s">
-        <v>678</v>
-      </c>
-      <c r="D480" t="s">
-        <v>901</v>
-      </c>
-      <c r="E480">
-        <v>3</v>
-      </c>
-      <c r="F480" t="b">
-        <v>1</v>
-      </c>
-      <c r="G480">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
-      <c r="A481" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B481" t="s">
-        <v>950</v>
-      </c>
-      <c r="C481" t="s">
-        <v>679</v>
-      </c>
-      <c r="D481" t="s">
-        <v>902</v>
-      </c>
-      <c r="E481">
-        <v>3</v>
-      </c>
-      <c r="F481" t="b">
-        <v>1</v>
-      </c>
-      <c r="G481">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
-      <c r="A482" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B482" t="s">
-        <v>952</v>
-      </c>
-      <c r="C482" t="s">
-        <v>685</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E482">
-        <v>3</v>
-      </c>
-      <c r="F482" t="b">
-        <v>1</v>
-      </c>
-      <c r="G482">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7">
-      <c r="A483" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B483" t="s">
-        <v>952</v>
-      </c>
-      <c r="C483" t="s">
-        <v>691</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1304</v>
-      </c>
-      <c r="E483">
-        <v>3</v>
-      </c>
-      <c r="F483" t="b">
-        <v>1</v>
-      </c>
-      <c r="G483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
-      <c r="A484" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B484" t="s">
-        <v>953</v>
-      </c>
-      <c r="C484" t="s">
-        <v>773</v>
-      </c>
-      <c r="D484" t="s">
-        <v>922</v>
-      </c>
-      <c r="E484">
-        <v>3</v>
-      </c>
-      <c r="F484" t="b">
-        <v>1</v>
-      </c>
-      <c r="G484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
-      <c r="A485" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B485" t="s">
-        <v>957</v>
-      </c>
-      <c r="C485" t="s">
-        <v>789</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1124</v>
-      </c>
-      <c r="E485">
-        <v>1</v>
-      </c>
-      <c r="F485" t="b">
-        <v>1</v>
-      </c>
-      <c r="G485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
-      <c r="A486" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B486" t="s">
-        <v>957</v>
-      </c>
-      <c r="C486" t="s">
-        <v>790</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E486">
-        <v>1</v>
-      </c>
-      <c r="F486" t="b">
-        <v>1</v>
-      </c>
-      <c r="G486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7">
-      <c r="A487" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B487" t="s">
-        <v>957</v>
-      </c>
-      <c r="C487" t="s">
-        <v>791</v>
-      </c>
-      <c r="D487" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E487">
-        <v>1</v>
-      </c>
-      <c r="F487" t="b">
-        <v>1</v>
-      </c>
-      <c r="G487">
         <v>1</v>
       </c>
     </row>
